--- a/25-26/Invoices 25-26/07 BK007 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/07 BK007 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\07 BK007 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FCC2F-760F-4E56-A231-45E3F3938646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F57739B-8E77-450A-9739-669628C692E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,11 +633,18 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1189,432 +1196,459 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,7 +2087,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2097,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3265,7 +3299,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -3298,10 +3332,10 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="76" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="11"/>
@@ -3330,8 +3364,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3358,8 +3392,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3386,8 +3420,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3414,8 +3448,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3442,8 +3476,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -31301,7 +31335,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31320,30 +31354,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31352,16 +31386,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="74" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="75"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31370,18 +31404,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="100" t="str">
+      <c r="E4" s="104" t="str">
         <f>'input data'!B3</f>
         <v>BK007/25-26</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="101">
+      <c r="F4" s="80"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="105">
         <f>'input data'!B4</f>
         <v>45836</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31390,16 +31424,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="74" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="75"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31408,15 +31442,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="107" t="str">
+      <c r="E6" s="77"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="111" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31425,16 +31459,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="74" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="75"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31443,16 +31477,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="76" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31461,16 +31495,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="74" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="75"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31479,57 +31513,57 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="96" t="str">
+      <c r="E10" s="98" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="96" t="str">
+      <c r="F10" s="75"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="98" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="85"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="104" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="108" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="91"/>
       <c r="G11" s="92"/>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="113" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="91"/>
       <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="str">
+      <c r="A12" s="109" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="106" t="str">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="110" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="110" t="str">
+      <c r="F12" s="75"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="114" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="85"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -31537,11 +31571,11 @@
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
       <c r="E13" s="89"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31550,17 +31584,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="75"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="str">
+      <c r="A15" s="120" t="str">
         <f>'input data'!B7</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -31569,212 +31603,212 @@
  TEL: 0962147396
  MAIL: AASTONEDOCS@GMAIL.COM</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="85"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="77"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="89"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="77"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="108" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="108" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="108" t="s">
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="75"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="115" t="str">
+      <c r="B22" s="87"/>
+      <c r="C22" s="123" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="116" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="116" t="str">
+      <c r="F22" s="75"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="124" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="85"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="89"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="89"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="77"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="89"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="77"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="114" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="74" t="s">
+      <c r="D24" s="85"/>
+      <c r="E24" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="114" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="75"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="76" t="str">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="76" t="str">
+      <c r="D25" s="78"/>
+      <c r="E25" s="79" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="76" t="str">
+      <c r="F25" s="80"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79" t="str">
         <f>'input data'!B22</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="77"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="80" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="75"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="75"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="76" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="77"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
@@ -31785,38 +31819,38 @@
         <v>POLISHED GRANITE SLABS</v>
       </c>
       <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="28">
+      <c r="D28" s="91"/>
+      <c r="E28" s="181">
         <v>68022390</v>
       </c>
-      <c r="F28" s="93">
+      <c r="F28" s="94">
         <f>'input data'!B26</f>
         <v>432.89</v>
       </c>
       <c r="G28" s="92"/>
-      <c r="H28" s="176">
+      <c r="H28" s="72">
         <f>'input data'!B27</f>
         <v>23.1</v>
       </c>
-      <c r="I28" s="94">
+      <c r="I28" s="126">
         <f>H28*F28</f>
         <v>9999.759</v>
       </c>
       <c r="J28" s="92"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="178" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="174"/>
-      <c r="J29" s="30"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
@@ -31833,17 +31867,17 @@
         <v>75</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="172"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="str">
+      <c r="A31" s="98" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>TRHU3958007</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="3">
         <f>'input data'!B25</f>
         <v>248</v>
@@ -31855,9 +31889,9 @@
         <v>77</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="172"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31866,22 +31900,22 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="172"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="175">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="116">
         <f>0.24</f>
         <v>0.24</v>
       </c>
@@ -31897,50 +31931,50 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="97">
+      <c r="H34" s="73"/>
+      <c r="I34" s="101">
         <f>SUM(I28:J33)</f>
         <v>9999.9989999999998</v>
       </c>
-      <c r="J34" s="75"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="89"/>
-      <c r="J35" s="77"/>
+      <c r="J35" s="78"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="98" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="75"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="85"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="19" t="s">
         <v>82</v>
       </c>
@@ -31951,10 +31985,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="85"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31966,9 +32000,9 @@
       <c r="A39" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="85"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31978,17 +32012,17 @@
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="89"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="31" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="30"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32950,8 +32984,8 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="A15:D20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -32964,41 +32998,32 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H9:J9"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J13"/>
     <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F26:G26"/>
@@ -33006,6 +33031,15 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="H29:H33"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -33041,56 +33075,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="118" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="100" t="str">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="104" t="str">
         <f>Invoice!E4</f>
         <v>BK007/25-26</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="101">
+      <c r="H3" s="78"/>
+      <c r="I3" s="105">
         <f>Invoice!H4</f>
         <v>45836</v>
       </c>
-      <c r="J3" s="103"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33101,12 +33135,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="75"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33117,27 +33151,27 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="76" t="str">
+      <c r="G5" s="79" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -33148,7 +33182,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>92</v>
       </c>
       <c r="H7" s="17"/>
@@ -33156,7 +33190,7 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="4"/>
@@ -33164,15 +33198,15 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4"/>
@@ -33180,37 +33214,37 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="17"/>
@@ -33218,14 +33252,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="str">
+      <c r="A12" s="131" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="4"/>
@@ -33234,32 +33268,32 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="89"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="75"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="str">
+      <c r="A15" s="120" t="str">
         <f>Invoice!A15</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -33268,97 +33302,97 @@
  TEL: 0962147396
  MAIL: AASTONEDOCS@GMAIL.COM</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="85"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="119" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="128" t="s">
+      <c r="H18" s="85"/>
+      <c r="I18" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="75"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="89"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="129" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="129" t="str">
+      <c r="H20" s="78"/>
+      <c r="I20" s="138" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="77"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="123" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="124" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="133" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="91"/>
@@ -33366,66 +33400,66 @@
       <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="76" t="str">
+      <c r="A22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="127" t="str">
+      <c r="E22" s="80"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="136" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="77"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="123" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="76" t="str">
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="30"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="123" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="130" t="s">
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="139" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="91"/>
@@ -33433,57 +33467,57 @@
       <c r="J25" s="92"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117" t="str">
+      <c r="A26" s="125" t="str">
         <f>Invoice!E25</f>
         <v>DA NANG</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="117" t="str">
+      <c r="B26" s="75"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="125" t="str">
         <f>Invoice!H25</f>
         <v>DA NANG</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="119" t="str">
+      <c r="E26" s="75"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="128" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="75"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="76" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="76" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="77"/>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
@@ -33494,7 +33528,7 @@
         <v>68022390</v>
       </c>
       <c r="C29" s="92"/>
-      <c r="D29" s="140" t="str">
+      <c r="D29" s="148" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -33502,31 +33536,31 @@
       <c r="F29" s="91"/>
       <c r="G29" s="91"/>
       <c r="H29" s="92"/>
-      <c r="I29" s="141">
+      <c r="I29" s="149">
         <f>Invoice!F28</f>
         <v>432.89</v>
       </c>
       <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="142">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="150">
         <f>SUM(I29:J29)</f>
         <v>432.89</v>
       </c>
       <c r="J30" s="92"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -33534,165 +33568,165 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="35"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="75"/>
+      <c r="F32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="35"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="str">
+      <c r="A33" s="98" t="str">
         <f>Invoice!A31</f>
         <v>TRHU3958007</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="52">
+      <c r="B33" s="75"/>
+      <c r="C33" s="51">
         <f>'input data'!B25</f>
         <v>248</v>
       </c>
-      <c r="D33" s="138" t="s">
+      <c r="D33" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="52" t="s">
+      <c r="E33" s="75"/>
+      <c r="F33" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="str">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="98" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="75"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139" t="s">
+      <c r="A39" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="85"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="133"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="137" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="77"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34733,89 +34767,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="58"/>
-      <c r="B1" s="143" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="145"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="153"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="58"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="151" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="75"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="152" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="85"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="77"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -34827,19 +34861,19 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="153" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="85"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34859,7 +34893,7 @@
       <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="68">
         <v>45835</v>
       </c>
       <c r="D9" s="4"/>
@@ -34876,7 +34910,7 @@
       <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="4"/>
@@ -34918,42 +34952,42 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -34976,122 +35010,122 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="104" t="s">
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="108" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="92"/>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="108" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="92"/>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="108" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="92"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="104">
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="108">
         <v>152.55000000000001</v>
       </c>
       <c r="G19" s="92"/>
-      <c r="H19" s="157">
+      <c r="H19" s="165">
         <v>4655.63</v>
       </c>
       <c r="I19" s="92"/>
-      <c r="J19" s="161">
+      <c r="J19" s="169">
         <f>F19*H19</f>
         <v>710216.35650000011</v>
       </c>
       <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="167" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="168"/>
-      <c r="J20" s="165">
+      <c r="I20" s="176"/>
+      <c r="J20" s="173">
         <f>J19*0.001</f>
         <v>710.21635650000007</v>
       </c>
-      <c r="K20" s="166"/>
+      <c r="K20" s="174"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="170" t="s">
+      <c r="B21" s="145"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="171"/>
-      <c r="J21" s="155">
+      <c r="I21" s="179"/>
+      <c r="J21" s="163">
         <f>SUM(J19:K20)</f>
         <v>710926.57285650016</v>
       </c>
-      <c r="K21" s="156"/>
+      <c r="K21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="85"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="159" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="167" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="91"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="160">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="168">
         <f>J21</f>
         <v>710926.57285650016</v>
       </c>
@@ -35111,11 +35145,11 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="169" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -35267,48 +35301,48 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="126" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="126" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="66" t="str">
+      <c r="C37" s="65" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -35357,16 +35391,16 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
